--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_684.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_684.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g33113-d271553-Reviews-Rodeway_Inn-South_Gate_California.html</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>11</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-Rodeway-Inn-South-Gate.h5909768.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_684.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_684.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="81">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,117 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>07/10/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d271553-r398662052-Rodeway_Inn-South_Gate_California.html</t>
+  </si>
+  <si>
+    <t>33113</t>
+  </si>
+  <si>
+    <t>271553</t>
+  </si>
+  <si>
+    <t>398662052</t>
+  </si>
+  <si>
+    <t>07/28/2016</t>
+  </si>
+  <si>
+    <t>Waste of Money/ Horrible Hotel</t>
+  </si>
+  <si>
+    <t>This place is falling apart. The floor is so dirty you can't walk on it without having to scrub black off your feet. The bathroom shower well is full of mold on tile. Old furniture stacked in parking lot(which makes no sense, because the room we were in had furniture from 1970s or 1980s in it). The bed had no fitted sheets, and the mattress had a huge hole in it. This hotel also likes to raise its rate on a whim by 50-100%. Needs attention by quality assurance by Choice. Very rude lady in morning at front desk. Terrible would be a compliment. I will let all my friends know to stay clear of this place.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>This place is falling apart. The floor is so dirty you can't walk on it without having to scrub black off your feet. The bathroom shower well is full of mold on tile. Old furniture stacked in parking lot(which makes no sense, because the room we were in had furniture from 1970s or 1980s in it). The bed had no fitted sheets, and the mattress had a huge hole in it. This hotel also likes to raise its rate on a whim by 50-100%. Needs attention by quality assurance by Choice. Very rude lady in morning at front desk. Terrible would be a compliment. I will let all my friends know to stay clear of this place.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d271553-r325247730-Rodeway_Inn-South_Gate_California.html</t>
+  </si>
+  <si>
+    <t>325247730</t>
+  </si>
+  <si>
+    <t>11/08/2015</t>
+  </si>
+  <si>
+    <t>2 Nights at Rodeway Inn</t>
+  </si>
+  <si>
+    <t>Nice Motel for a short stay. My room was an ex-smoker room, which I was smelling. There was a big TV but no refrigerator. Parking is free and directly in front of the room possible. The breakfast wasn´t the name worth. Only a few sweets and a really bad coffee. But fort 1 - 2 days it´s ok.</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d271553-r322095763-Rodeway_Inn-South_Gate_California.html</t>
+  </si>
+  <si>
+    <t>322095763</t>
+  </si>
+  <si>
+    <t>10/26/2015</t>
+  </si>
+  <si>
+    <t>DO NOT RECOMMEND!!</t>
+  </si>
+  <si>
+    <t>Horrible Hotel. Never staying there again. Rooms i booked were supposed to be "non-smoking" but smelled like cigars. There was trash and CIGARETTE buds under the bed! Very RUDE staff. Pictures on website are nothing to what this hotel really looks like!!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d271553-r189415576-Rodeway_Inn-South_Gate_California.html</t>
+  </si>
+  <si>
+    <t>189415576</t>
+  </si>
+  <si>
+    <t>01/02/2014</t>
+  </si>
+  <si>
+    <t>PERFECT FOR MY NEEDS!</t>
+  </si>
+  <si>
+    <t>I needed a room for New Years Eve as I was working in downtown LA two days in a row and didn't want the drive to and from Orange County since I had to be back at work at 4:30 a.m. the next morning.  This property just 14 miles from downtown and booked on hotels.com for $68.00 including taxes.Arrived around 10:30 p.m. and nice hotel clerk had my key ready and was able to give me a ground floor room.  Parked my car right in front of my door, brought my things into the room and was ready for bed by 11:00 p.m.When I opened the door I was pleasantly surprised at the spacious room, very clean, bedspread had been turned back and pillows fluffed up.Furniture a little worn but didn't look junky; just needed a little updated.Bathroom clean and temperature easily adjusted.Only complaint is that the parking spots are small and I was barely able to squeeze into my car when I left early the next morning.Bed very comfortable and outside of a little noise for New Years Eve, a perfect stay.I would recommend for a short stay where convenience matters.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>I needed a room for New Years Eve as I was working in downtown LA two days in a row and didn't want the drive to and from Orange County since I had to be back at work at 4:30 a.m. the next morning.  This property just 14 miles from downtown and booked on hotels.com for $68.00 including taxes.Arrived around 10:30 p.m. and nice hotel clerk had my key ready and was able to give me a ground floor room.  Parked my car right in front of my door, brought my things into the room and was ready for bed by 11:00 p.m.When I opened the door I was pleasantly surprised at the spacious room, very clean, bedspread had been turned back and pillows fluffed up.Furniture a little worn but didn't look junky; just needed a little updated.Bathroom clean and temperature easily adjusted.Only complaint is that the parking spots are small and I was barely able to squeeze into my car when I left early the next morning.Bed very comfortable and outside of a little noise for New Years Eve, a perfect stay.I would recommend for a short stay where convenience matters.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d271553-r186931716-Rodeway_Inn-South_Gate_California.html</t>
+  </si>
+  <si>
+    <t>186931716</t>
+  </si>
+  <si>
+    <t>12/06/2013</t>
+  </si>
+  <si>
+    <t>Nice staff comfortable rooms</t>
+  </si>
+  <si>
+    <t>Rooms need minor repairs (sink clogged, internet with low signal on upstair floor rooms, toilet flush broken). We staid a week and staff has been nice and attentive to our needs changing our room every time a problem raised. Rooms are clean, spacious and warm. Good value for money when you get the right weekly deal. Breakfast included. Croissants and petite muffins + coffee. Not the best but not too bad</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
   </si>
 </sst>
 </file>
@@ -648,6 +759,323 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>45466</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>45466</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O3" t="s">
+        <v>61</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="n">
+        <v>3</v>
+      </c>
+      <c r="S3" t="n">
+        <v>3</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>3</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>45466</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" t="s">
+        <v>65</v>
+      </c>
+      <c r="L4" t="s">
+        <v>66</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>60</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="n">
+        <v>1</v>
+      </c>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>1</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>45466</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L5" t="s">
+        <v>71</v>
+      </c>
+      <c r="M5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" t="s">
+        <v>72</v>
+      </c>
+      <c r="O5" t="s">
+        <v>61</v>
+      </c>
+      <c r="P5" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>3</v>
+      </c>
+      <c r="R5" t="n">
+        <v>3</v>
+      </c>
+      <c r="S5" t="n">
+        <v>5</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>45466</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" t="s">
+        <v>76</v>
+      </c>
+      <c r="K6" t="s">
+        <v>77</v>
+      </c>
+      <c r="L6" t="s">
+        <v>78</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
+        <v>79</v>
+      </c>
+      <c r="O6" t="s">
+        <v>80</v>
+      </c>
+      <c r="P6" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>3</v>
+      </c>
+      <c r="R6" t="n">
+        <v>3</v>
+      </c>
+      <c r="S6" t="n">
+        <v>4</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>4</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>78</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_684.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_684.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="86">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Paul H</t>
+  </si>
+  <si>
     <t>07/10/2018</t>
   </si>
   <si>
@@ -183,6 +186,9 @@
     <t>This place is falling apart. The floor is so dirty you can't walk on it without having to scrub black off your feet. The bathroom shower well is full of mold on tile. Old furniture stacked in parking lot(which makes no sense, because the room we were in had furniture from 1970s or 1980s in it). The bed had no fitted sheets, and the mattress had a huge hole in it. This hotel also likes to raise its rate on a whim by 50-100%. Needs attention by quality assurance by Choice. Very rude lady in morning at front desk. Terrible would be a compliment. I will let all my friends know to stay clear of this place.More</t>
   </si>
   <si>
+    <t>Florian B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d271553-r325247730-Rodeway_Inn-South_Gate_California.html</t>
   </si>
   <si>
@@ -204,6 +210,9 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
+    <t>Liliana F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d271553-r322095763-Rodeway_Inn-South_Gate_California.html</t>
   </si>
   <si>
@@ -219,6 +228,9 @@
     <t>Horrible Hotel. Never staying there again. Rooms i booked were supposed to be "non-smoking" but smelled like cigars. There was trash and CIGARETTE buds under the bed! Very RUDE staff. Pictures on website are nothing to what this hotel really looks like!!!</t>
   </si>
   <si>
+    <t>nshugg</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d271553-r189415576-Rodeway_Inn-South_Gate_California.html</t>
   </si>
   <si>
@@ -238,6 +250,9 @@
   </si>
   <si>
     <t>I needed a room for New Years Eve as I was working in downtown LA two days in a row and didn't want the drive to and from Orange County since I had to be back at work at 4:30 a.m. the next morning.  This property just 14 miles from downtown and booked on hotels.com for $68.00 including taxes.Arrived around 10:30 p.m. and nice hotel clerk had my key ready and was able to give me a ground floor room.  Parked my car right in front of my door, brought my things into the room and was ready for bed by 11:00 p.m.When I opened the door I was pleasantly surprised at the spacious room, very clean, bedspread had been turned back and pillows fluffed up.Furniture a little worn but didn't look junky; just needed a little updated.Bathroom clean and temperature easily adjusted.Only complaint is that the parking spots are small and I was barely able to squeeze into my car when I left early the next morning.Bed very comfortable and outside of a little noise for New Years Eve, a perfect stay.I would recommend for a short stay where convenience matters.More</t>
+  </si>
+  <si>
+    <t>DebsHK</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d271553-r186931716-Rodeway_Inn-South_Gate_California.html</t>
@@ -763,43 +778,47 @@
       <c r="A2" t="n">
         <v>45466</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -813,50 +832,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>45466</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>56</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M3" t="n">
         <v>3</v>
       </c>
       <c r="N3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -876,50 +899,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>45466</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>64</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="K4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="L4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P4" t="n">
         <v>1</v>
@@ -939,50 +966,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>45466</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>70</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="K5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="L5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="M5" t="n">
         <v>3</v>
       </c>
       <c r="N5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="O5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P5" t="n">
         <v>5</v>
@@ -1006,50 +1037,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>45466</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>78</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="J6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="K6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="L6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="M6" t="n">
         <v>3</v>
       </c>
       <c r="N6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="O6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P6" t="n">
         <v>4</v>
@@ -1073,7 +1108,7 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
